--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H2">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I2">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J2">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>1563.499864944285</v>
+        <v>6782.040418736734</v>
       </c>
       <c r="R2">
-        <v>14071.49878449857</v>
+        <v>61038.36376863061</v>
       </c>
       <c r="S2">
-        <v>0.03564269076636936</v>
+        <v>0.1015932800234629</v>
       </c>
       <c r="T2">
-        <v>0.03564269076636938</v>
+        <v>0.101593280023463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H3">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I3">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J3">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>2575.731839791984</v>
+        <v>6576.14665563489</v>
       </c>
       <c r="R3">
-        <v>23181.58655812786</v>
+        <v>59185.31990071401</v>
       </c>
       <c r="S3">
-        <v>0.05871827399618534</v>
+        <v>0.09850904262020277</v>
       </c>
       <c r="T3">
-        <v>0.05871827399618536</v>
+        <v>0.09850904262020278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H4">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I4">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J4">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>2279.716689796296</v>
+        <v>6696.662816008773</v>
       </c>
       <c r="R4">
-        <v>20517.45020816666</v>
+        <v>60269.96534407896</v>
       </c>
       <c r="S4">
-        <v>0.0519700953170444</v>
+        <v>0.1003143447523445</v>
       </c>
       <c r="T4">
-        <v>0.05197009531704441</v>
+        <v>0.1003143447523445</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H5">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I5">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J5">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>1033.352088960676</v>
+        <v>2671.779491861671</v>
       </c>
       <c r="R5">
-        <v>9300.168800646081</v>
+        <v>24046.01542675504</v>
       </c>
       <c r="S5">
-        <v>0.02355705285648978</v>
+        <v>0.0400225928066951</v>
       </c>
       <c r="T5">
-        <v>0.02355705285648979</v>
+        <v>0.04002259280669511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>124.331589</v>
       </c>
       <c r="I6">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J6">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>4100.734473754812</v>
+        <v>6967.120652956321</v>
       </c>
       <c r="R6">
-        <v>36906.61026379331</v>
+        <v>62704.08587660689</v>
       </c>
       <c r="S6">
-        <v>0.09348335362231806</v>
+        <v>0.1043657359365731</v>
       </c>
       <c r="T6">
-        <v>0.09348335362231809</v>
+        <v>0.1043657359365731</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>124.331589</v>
       </c>
       <c r="I7">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J7">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>6755.608099115047</v>
@@ -883,10 +883,10 @@
         <v>60800.47289203542</v>
       </c>
       <c r="S7">
-        <v>0.1540058018643438</v>
+        <v>0.1011973304443987</v>
       </c>
       <c r="T7">
-        <v>0.1540058018643439</v>
+        <v>0.1011973304443987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>124.331589</v>
       </c>
       <c r="I8">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J8">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>5979.22201968019</v>
+        <v>6879.41311620639</v>
       </c>
       <c r="R8">
-        <v>53812.99817712171</v>
+        <v>61914.71804585751</v>
       </c>
       <c r="S8">
-        <v>0.1363067348128756</v>
+        <v>0.1030518988328326</v>
       </c>
       <c r="T8">
-        <v>0.1363067348128756</v>
+        <v>0.1030518988328326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>124.331589</v>
       </c>
       <c r="I9">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J9">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>2710.267285426721</v>
+        <v>2744.691704648063</v>
       </c>
       <c r="R9">
-        <v>24392.40556884048</v>
+        <v>24702.22534183257</v>
       </c>
       <c r="S9">
-        <v>0.06178524278421621</v>
+        <v>0.04111479963434449</v>
       </c>
       <c r="T9">
-        <v>0.06178524278421623</v>
+        <v>0.04111479963434449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H10">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I10">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J10">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>3537.285454267497</v>
+        <v>6159.889539188503</v>
       </c>
       <c r="R10">
-        <v>31835.56908840747</v>
+        <v>55439.00585269653</v>
       </c>
       <c r="S10">
-        <v>0.08063855611738445</v>
+        <v>0.09227361446261387</v>
       </c>
       <c r="T10">
-        <v>0.08063855611738448</v>
+        <v>0.0922736144626139</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H11">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I11">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J11">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>5827.374197639931</v>
+        <v>5972.883452640962</v>
       </c>
       <c r="R11">
-        <v>52446.36777875938</v>
+        <v>53755.95107376866</v>
       </c>
       <c r="S11">
-        <v>0.1328451003824047</v>
+        <v>0.08947230976023714</v>
       </c>
       <c r="T11">
-        <v>0.1328451003824048</v>
+        <v>0.08947230976023715</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H12">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I12">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J12">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>5157.665099609485</v>
+        <v>6082.344055904149</v>
       </c>
       <c r="R12">
-        <v>46418.98589648536</v>
+        <v>54741.09650313735</v>
       </c>
       <c r="S12">
-        <v>0.1175779201160515</v>
+        <v>0.0911120023943494</v>
       </c>
       <c r="T12">
-        <v>0.1175779201160515</v>
+        <v>0.09111200239434941</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H13">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I13">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J13">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>2337.871205091396</v>
+        <v>2426.683641912388</v>
       </c>
       <c r="R13">
-        <v>21040.84084582256</v>
+        <v>21840.1527772115</v>
       </c>
       <c r="S13">
-        <v>0.05329582834191116</v>
+        <v>0.03635111788482725</v>
       </c>
       <c r="T13">
-        <v>0.05329582834191117</v>
+        <v>0.03635111788482726</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H14">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I14">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J14">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>1.595351013293333</v>
+        <v>12.38975031107578</v>
       </c>
       <c r="R14">
-        <v>14.35815911964</v>
+        <v>111.507752799682</v>
       </c>
       <c r="S14">
-        <v>3.636879292768892E-05</v>
+        <v>0.0001855953806020467</v>
       </c>
       <c r="T14">
-        <v>3.636879292768892E-05</v>
+        <v>0.0001855953806020468</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H15">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I15">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J15">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>2.628203873065555</v>
+        <v>12.01361390404522</v>
       </c>
       <c r="R15">
-        <v>23.65383485759</v>
+        <v>108.122525136407</v>
       </c>
       <c r="S15">
-        <v>5.991446498908907E-05</v>
+        <v>0.0001799609507008472</v>
       </c>
       <c r="T15">
-        <v>5.991446498908908E-05</v>
+        <v>0.0001799609507008472</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H16">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I16">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J16">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>2.326158391588889</v>
+        <v>12.23377849217666</v>
       </c>
       <c r="R16">
-        <v>20.9354255243</v>
+        <v>110.10400642959</v>
       </c>
       <c r="S16">
-        <v>5.302881444633344E-05</v>
+        <v>0.0001832589615165147</v>
       </c>
       <c r="T16">
-        <v>5.302881444633345E-05</v>
+        <v>0.0001832589615165147</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H17">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I17">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J17">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>1.054403226488889</v>
+        <v>4.880932395944778</v>
       </c>
       <c r="R17">
-        <v>9.4896290384</v>
+        <v>43.928391563503</v>
       </c>
       <c r="S17">
-        <v>2.403695004229808E-05</v>
+        <v>7.311515429882585E-05</v>
       </c>
       <c r="T17">
-        <v>2.403695004229809E-05</v>
+        <v>7.311515429882585E-05</v>
       </c>
     </row>
   </sheetData>
